--- a/data/Capricoin/Capricoin20150701.xlsx
+++ b/data/Capricoin/Capricoin20150701.xlsx
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83">
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113">
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="128">
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="184">
